--- a/files/Repetidos.xlsx
+++ b/files/Repetidos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>COD_PORCION</t>
   </si>
@@ -50,7 +50,7 @@
     <t>VIGENCIA</t>
   </si>
   <si>
-    <t>TO_CHAR(REG_LECTURAS.FECHAEJE,'DD/MM/YYYYHH:MI:SSAM')</t>
+    <t>FECHA</t>
   </si>
   <si>
     <t>ORDEN_LECTURA</t>
@@ -80,7 +80,7 @@
     <t>CLASE_INSTALA</t>
   </si>
   <si>
-    <t>B4</t>
+    <t>E4</t>
   </si>
   <si>
     <t>B44043</t>
@@ -99,51 +99,6 @@
   </si>
   <si>
     <t>MONTES AGUILERA</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C44106</t>
-  </si>
-  <si>
-    <t>99AB1013651</t>
-  </si>
-  <si>
-    <t>U44</t>
-  </si>
-  <si>
-    <t>KR 1F 48R SUR</t>
-  </si>
-  <si>
-    <t>PI 1</t>
-  </si>
-  <si>
-    <t>ROSANA</t>
-  </si>
-  <si>
-    <t>BELTRAN CASTILLO</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E44181A</t>
-  </si>
-  <si>
-    <t>02015IB005758</t>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>KR 7A ESTE 90D SUR</t>
-  </si>
-  <si>
-    <t>HECTOR LEONEL</t>
-  </si>
-  <si>
-    <t>CARDENAS BUSTOS</t>
   </si>
 </sst>
 </file>
@@ -590,8 +545,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986bf5af-8e88-4d66-8357-9bcf77022f42}">
-  <dimension ref="A1:U5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ec7bdce-d0ef-4a0a-a35e-7fdeabce0d78}">
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -670,7 +625,7 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>472610792</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>10386733</v>
@@ -717,55 +672,52 @@
     </row>
     <row r="3" spans="1:21" ht="12.75">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>472944605</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>10632106</v>
+        <v>10386733</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>2345</v>
+        <v>5632</v>
       </c>
       <c r="G3">
-        <v>2355</v>
+        <v>5661</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>202260</v>
       </c>
       <c r="L3" s="1">
-        <v>44803.475</v>
+        <v>44800.572916666664</v>
       </c>
       <c r="M3">
-        <v>331</v>
+        <v>561</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="P3">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -773,113 +725,54 @@
     </row>
     <row r="4" spans="1:21" ht="12.75">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>472944605</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>10632106</v>
+        <v>10386733</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>2345</v>
+        <v>5632</v>
       </c>
       <c r="G4">
-        <v>2355</v>
+        <v>5661</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>202260</v>
       </c>
       <c r="L4" s="1">
-        <v>44803.475</v>
+        <v>44800.572916666664</v>
       </c>
       <c r="M4">
-        <v>331</v>
+        <v>561</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="P4">
-        <v>20</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="S4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="U4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="12.75">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5">
-        <v>473367056</v>
-      </c>
-      <c r="D5">
-        <v>11339086</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5">
-        <v>1980</v>
-      </c>
-      <c r="G5">
-        <v>1980</v>
-      </c>
-      <c r="H5">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5">
-        <v>202260</v>
-      </c>
-      <c r="L5" s="1">
-        <v>44807.407638888886</v>
-      </c>
-      <c r="M5">
-        <v>157</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5">
-        <v>63</v>
-      </c>
-      <c r="R5" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5">
         <v>1</v>
       </c>
     </row>

--- a/files/Repetidos.xlsx
+++ b/files/Repetidos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>COD_PORCION</t>
   </si>
@@ -50,7 +50,7 @@
     <t>VIGENCIA</t>
   </si>
   <si>
-    <t>TO_CHAR(REG_LECTURAS.FECHAEJE,'DD/MM/YYYYHH:MI:SSAM')</t>
+    <t>FECHA</t>
   </si>
   <si>
     <t>ORDEN_LECTURA</t>
@@ -78,81 +78,12 @@
   </si>
   <si>
     <t>CLASE_INSTALA</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B44043</t>
-  </si>
-  <si>
-    <t>AB951883</t>
-  </si>
-  <si>
-    <t>B43</t>
-  </si>
-  <si>
-    <t>CL 37B SUR 68I</t>
-  </si>
-  <si>
-    <t>GLADYS</t>
-  </si>
-  <si>
-    <t>MONTES AGUILERA</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C44106</t>
-  </si>
-  <si>
-    <t>99AB1013651</t>
-  </si>
-  <si>
-    <t>U44</t>
-  </si>
-  <si>
-    <t>KR 1F 48R SUR</t>
-  </si>
-  <si>
-    <t>PI 1</t>
-  </si>
-  <si>
-    <t>ROSANA</t>
-  </si>
-  <si>
-    <t>BELTRAN CASTILLO</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E44181A</t>
-  </si>
-  <si>
-    <t>02015IB005758</t>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>KR 7A ESTE 90D SUR</t>
-  </si>
-  <si>
-    <t>HECTOR LEONEL</t>
-  </si>
-  <si>
-    <t>CARDENAS BUSTOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="d/m/yyyy h:m"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <sz val="10"/>
@@ -203,9 +134,8 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +520,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986bf5af-8e88-4d66-8357-9bcf77022f42}">
-  <dimension ref="A1:U5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d90475f6-d31e-43a2-bb6c-c0fef2beb197}">
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -662,227 +592,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="12.75">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>472610792</v>
-      </c>
-      <c r="D2">
-        <v>10386733</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>5632</v>
-      </c>
-      <c r="G2">
-        <v>5661</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2">
-        <v>202260</v>
-      </c>
-      <c r="L2" s="1">
-        <v>44800.572916666664</v>
-      </c>
-      <c r="M2">
-        <v>561</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="12.75">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3">
-        <v>472944605</v>
-      </c>
-      <c r="D3">
-        <v>10632106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>2345</v>
-      </c>
-      <c r="G3">
-        <v>2355</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3">
-        <v>202260</v>
-      </c>
-      <c r="L3" s="1">
-        <v>44803.475</v>
-      </c>
-      <c r="M3">
-        <v>331</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="12.75">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>472944605</v>
-      </c>
-      <c r="D4">
-        <v>10632106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>2345</v>
-      </c>
-      <c r="G4">
-        <v>2355</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4">
-        <v>202260</v>
-      </c>
-      <c r="L4" s="1">
-        <v>44803.475</v>
-      </c>
-      <c r="M4">
-        <v>331</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4">
-        <v>20</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="12.75">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5">
-        <v>473367056</v>
-      </c>
-      <c r="D5">
-        <v>11339086</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5">
-        <v>1980</v>
-      </c>
-      <c r="G5">
-        <v>1980</v>
-      </c>
-      <c r="H5">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5">
-        <v>202260</v>
-      </c>
-      <c r="L5" s="1">
-        <v>44807.407638888886</v>
-      </c>
-      <c r="M5">
-        <v>157</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5">
-        <v>63</v>
-      </c>
-      <c r="R5" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/files/Repetidos.xlsx
+++ b/files/Repetidos.xlsx
@@ -520,7 +520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d90475f6-d31e-43a2-bb6c-c0fef2beb197}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7dbe78a2-7d1b-480f-abd1-a6e39d61685a}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/files/Repetidos.xlsx
+++ b/files/Repetidos.xlsx
@@ -520,7 +520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d90475f6-d31e-43a2-bb6c-c0fef2beb197}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8aea1d25-1ddb-4a16-ac79-c528c97d7be8}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/files/Repetidos.xlsx
+++ b/files/Repetidos.xlsx
@@ -520,7 +520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7dbe78a2-7d1b-480f-abd1-a6e39d61685a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89b6ba9e-cdf1-4f15-850c-205fce3e1dda}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
